--- a/Data Files/WRMA-108.xlsx
+++ b/Data Files/WRMA-108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A5AEC7-3635-2A4B-B152-EBC8CDB97095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D47B7A-F7A6-5A4A-A60A-864875B539E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{89ADAF87-89BE-E04D-866B-68931CD6D7B8}"/>
   </bookViews>
@@ -439,12 +439,11 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" activeCellId="1" sqref="A2 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" customWidth="1"/>
   </cols>
